--- a/оценка мобильной  версии gaza-dostavka.ru.xlsx
+++ b/оценка мобильной  версии gaza-dostavka.ru.xlsx
@@ -214,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,13 +234,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,26 +278,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,9 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -560,7 +595,7 @@
     <col min="3" max="3" width="20.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,15 +606,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,16 +624,18 @@
       <c r="C4" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -609,15 +646,16 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -628,7 +666,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -639,7 +677,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,12 +688,12 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -666,7 +704,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>

--- a/оценка мобильной  версии gaza-dostavka.ru.xlsx
+++ b/оценка мобильной  версии gaza-dostavka.ru.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,6 +645,7 @@
       <c r="C6" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -665,6 +666,10 @@
       <c r="C8" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -676,6 +681,7 @@
       <c r="C10" s="3">
         <v>1.3888888888888888E-2</v>
       </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
